--- a/input data/teacher.xlsx
+++ b/input data/teacher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20760" windowHeight="11700" tabRatio="868"/>
+    <workbookView windowWidth="21000" windowHeight="11655" tabRatio="868" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="和田" sheetId="2" r:id="rId1"/>
@@ -399,7 +399,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,13 +432,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -594,7 +587,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,12 +735,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,28 +1579,31 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1622,121 +1612,118 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2290,7 +2277,7 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A20" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="L57" sqref="A53:L57"/>
     </sheetView>
   </sheetViews>
@@ -11711,8 +11698,8 @@
   <sheetPr/>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:K49"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
